--- a/testresults/resultfile/test_result.xlsx
+++ b/testresults/resultfile/test_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>target</t>
   </si>
@@ -37,142 +37,133 @@
     <t>F1值</t>
   </si>
   <si>
+    <t>咨询专家</t>
+  </si>
+  <si>
+    <t>咨询住院</t>
+  </si>
+  <si>
+    <t>咨询治疗方式</t>
+  </si>
+  <si>
+    <t>咨询症状</t>
+  </si>
+  <si>
+    <t>咨询优惠活动</t>
+  </si>
+  <si>
+    <t>咨询宜吃食物</t>
+  </si>
+  <si>
+    <t>咨询仪器</t>
+  </si>
+  <si>
+    <t>咨询医保</t>
+  </si>
+  <si>
+    <t>咨询药物</t>
+  </si>
+  <si>
+    <t>咨询项目介绍</t>
+  </si>
+  <si>
+    <t>咨询细菌</t>
+  </si>
+  <si>
+    <t>咨询微信</t>
+  </si>
+  <si>
+    <t>咨询危害</t>
+  </si>
+  <si>
+    <t>咨询疼痛程度</t>
+  </si>
+  <si>
+    <t>咨询术前准备</t>
+  </si>
+  <si>
+    <t>咨询术后注意事项</t>
+  </si>
+  <si>
+    <t>咨询手术时长</t>
+  </si>
+  <si>
+    <t>咨询手术方式</t>
+  </si>
+  <si>
+    <t>咨询上班时间</t>
+  </si>
+  <si>
+    <t>咨询路线</t>
+  </si>
+  <si>
+    <t>咨询疗效</t>
+  </si>
+  <si>
+    <t>咨询检查时长</t>
+  </si>
+  <si>
+    <t>咨询检查方式</t>
+  </si>
+  <si>
+    <t>咨询价格</t>
+  </si>
+  <si>
+    <t>咨询忌口食物</t>
+  </si>
+  <si>
+    <t>咨询恢复期</t>
+  </si>
+  <si>
+    <t>咨询公司介绍</t>
+  </si>
+  <si>
+    <t>咨询公立私立</t>
+  </si>
+  <si>
+    <t>咨询副作用</t>
+  </si>
+  <si>
+    <t>咨询动刀</t>
+  </si>
+  <si>
+    <t>咨询电话</t>
+  </si>
+  <si>
+    <t>咨询地址</t>
+  </si>
+  <si>
+    <t>咨询成功案例</t>
+  </si>
+  <si>
+    <t>咨询病因</t>
+  </si>
+  <si>
+    <t>咨询QQ</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>确定预约时间</t>
+  </si>
+  <si>
+    <t>描述症状</t>
+  </si>
+  <si>
     <t>描述就诊史</t>
   </si>
   <si>
-    <t>描述生理现象</t>
-  </si>
-  <si>
-    <t>描述症状</t>
-  </si>
-  <si>
-    <t>确定预约时间</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>咨询QQ</t>
-  </si>
-  <si>
-    <t>咨询病因</t>
-  </si>
-  <si>
-    <t>咨询不住院</t>
-  </si>
-  <si>
-    <t>咨询成功案例</t>
-  </si>
-  <si>
-    <t>咨询地址</t>
-  </si>
-  <si>
-    <t>咨询电话</t>
-  </si>
-  <si>
-    <t>咨询动刀</t>
-  </si>
-  <si>
-    <t>咨询副作用</t>
-  </si>
-  <si>
-    <t>咨询公立私立</t>
-  </si>
-  <si>
-    <t>咨询公司介绍</t>
-  </si>
-  <si>
-    <t>咨询恢复期</t>
-  </si>
-  <si>
-    <t>咨询忌口食物</t>
-  </si>
-  <si>
-    <t>咨询价格</t>
-  </si>
-  <si>
-    <t>咨询检查</t>
-  </si>
-  <si>
-    <t>咨询检查方式</t>
-  </si>
-  <si>
-    <t>咨询检查时长</t>
-  </si>
-  <si>
-    <t>咨询疗效</t>
-  </si>
-  <si>
-    <t>咨询路线</t>
-  </si>
-  <si>
-    <t>咨询上班时间</t>
-  </si>
-  <si>
-    <t>咨询手术方式</t>
-  </si>
-  <si>
-    <t>咨询手术时长</t>
-  </si>
-  <si>
-    <t>咨询术后注意事项</t>
-  </si>
-  <si>
-    <t>咨询术前准备</t>
-  </si>
-  <si>
-    <t>咨询疼痛程度</t>
-  </si>
-  <si>
-    <t>咨询危害</t>
-  </si>
-  <si>
-    <t>咨询微信</t>
-  </si>
-  <si>
-    <t>咨询细菌</t>
-  </si>
-  <si>
-    <t>咨询项目介绍</t>
-  </si>
-  <si>
-    <t>咨询药物</t>
-  </si>
-  <si>
-    <t>咨询医保</t>
-  </si>
-  <si>
-    <t>咨询仪器</t>
-  </si>
-  <si>
-    <t>咨询宜吃食物</t>
-  </si>
-  <si>
-    <t>咨询优惠活动</t>
-  </si>
-  <si>
-    <t>咨询症状</t>
-  </si>
-  <si>
-    <t>咨询治疗方式</t>
-  </si>
-  <si>
-    <t>咨询住院</t>
-  </si>
-  <si>
-    <t>咨询专家</t>
-  </si>
-  <si>
     <t>平均值（不含无）</t>
   </si>
   <si>
     <t>汇总</t>
   </si>
   <si>
-    <t>用例数：4058</t>
-  </si>
-  <si>
-    <t>accuracy：71.56%</t>
+    <t>用例数：3706</t>
+  </si>
+  <si>
+    <t>accuracy：77.47%</t>
   </si>
 </sst>
 </file>
@@ -530,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,22 +555,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.851063829787234</v>
+        <v>0.75</v>
       </c>
       <c r="F2">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G2">
-        <v>0.8421052631578947</v>
+        <v>0.7999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -587,22 +578,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="C3">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>0.7550200803212851</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="F3">
-        <v>0.8744186046511628</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="G3">
-        <v>0.8103448275862069</v>
+        <v>0.8387096774193549</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -610,22 +601,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="C4">
-        <v>565</v>
+        <v>337</v>
       </c>
       <c r="D4">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="E4">
-        <v>0.5327433628318584</v>
+        <v>0.7181008902077152</v>
       </c>
       <c r="F4">
-        <v>0.8985074626865671</v>
+        <v>0.8316151202749141</v>
       </c>
       <c r="G4">
-        <v>0.6688888888888889</v>
+        <v>0.7707006369426752</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -633,22 +624,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="D5">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>0.8786127167630058</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.9382716049382716</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="G5">
-        <v>0.9074626865671642</v>
+        <v>0.5972850678733032</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -656,22 +647,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="C6">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>0.44</v>
+        <v>0.8783783783783784</v>
       </c>
       <c r="F6">
-        <v>0.2254098360655738</v>
+        <v>0.8904109589041096</v>
       </c>
       <c r="G6">
-        <v>0.2981029810298103</v>
+        <v>0.8843537414965986</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -679,22 +670,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>0.9722222222222222</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="F7">
-        <v>0.9210526315789473</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.9459459459459458</v>
+        <v>0.4814814814814815</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -702,22 +693,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>0.7971014492753623</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="F8">
-        <v>0.2835051546391752</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G8">
-        <v>0.4182509505703422</v>
+        <v>0.8979591836734695</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -725,22 +716,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E9">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.6</v>
-      </c>
       <c r="G9">
-        <v>0.7499999999999999</v>
+        <v>0.8918918918918919</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -748,22 +739,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="E10">
-        <v>0.9523809523809523</v>
+        <v>0.8657407407407407</v>
       </c>
       <c r="F10">
-        <v>0.7692307692307693</v>
+        <v>0.8577981651376146</v>
       </c>
       <c r="G10">
-        <v>0.8510638297872339</v>
+        <v>0.8617511520737327</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -771,22 +762,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="C11">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D11">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E11">
-        <v>0.8043478260869565</v>
+        <v>0.7478991596638656</v>
       </c>
       <c r="F11">
-        <v>0.9135802469135802</v>
+        <v>0.5705128205128205</v>
       </c>
       <c r="G11">
-        <v>0.8554913294797687</v>
+        <v>0.6472727272727272</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -794,22 +785,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>0.9803921568627451</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F12">
-        <v>0.9259259259259259</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G12">
-        <v>0.9523809523809523</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -817,22 +808,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C13">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E13">
-        <v>0.7108433734939759</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="F13">
-        <v>0.7023809523809523</v>
+        <v>0.9710144927536232</v>
       </c>
       <c r="G13">
-        <v>0.7065868263473053</v>
+        <v>0.937062937062937</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -840,22 +831,22 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14">
-        <v>0.410958904109589</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="F14">
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.4511278195488722</v>
+        <v>0.5423728813559322</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -863,22 +854,22 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.475</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G15">
-        <v>0.6440677966101694</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -886,22 +877,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>0.4831460674157304</v>
+        <v>0.75</v>
       </c>
       <c r="F16">
-        <v>0.9347826086956522</v>
+        <v>0.6</v>
       </c>
       <c r="G16">
-        <v>0.6370370370370371</v>
+        <v>0.6666666666666665</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -909,22 +900,22 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F17">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G17">
-        <v>0.7368421052631577</v>
+        <v>0.6250000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -932,22 +923,22 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0.75</v>
       </c>
       <c r="F18">
-        <v>0.4137931034482759</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="G18">
-        <v>0.5333333333333333</v>
+        <v>0.7578947368421053</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -955,22 +946,22 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="C19">
-        <v>291</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>0.8831615120274914</v>
+        <v>0.53125</v>
       </c>
       <c r="F19">
-        <v>0.9553903345724907</v>
+        <v>0.34</v>
       </c>
       <c r="G19">
-        <v>0.9178571428571428</v>
+        <v>0.4146341463414634</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -978,22 +969,22 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C20">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20">
-        <v>0.3846153846153846</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="F20">
-        <v>0.4245283018867925</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="G20">
-        <v>0.4035874439461883</v>
+        <v>0.88659793814433</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1001,22 +992,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="C21">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>0.7073170731707317</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="F21">
-        <v>0.7160493827160493</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="G21">
-        <v>0.7116564417177914</v>
+        <v>0.6419753086419752</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1024,22 +1015,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="F22">
-        <v>0.4</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="G22">
-        <v>0.5454545454545455</v>
+        <v>0.5263157894736843</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1047,22 +1038,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>0.675</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="F23">
-        <v>0.4029850746268657</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="G23">
-        <v>0.5046728971962616</v>
+        <v>0.6923076923076925</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1070,22 +1061,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="E24">
-        <v>0.96875</v>
+        <v>0.7819148936170213</v>
       </c>
       <c r="F24">
-        <v>0.5740740740740741</v>
+        <v>0.875</v>
       </c>
       <c r="G24">
-        <v>0.7209302325581396</v>
+        <v>0.8258426966292135</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1093,22 +1084,22 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="C25">
-        <v>42</v>
+        <v>293</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="E25">
-        <v>0.9523809523809523</v>
+        <v>0.9044368600682594</v>
       </c>
       <c r="F25">
-        <v>0.7547169811320755</v>
+        <v>0.9706959706959707</v>
       </c>
       <c r="G25">
-        <v>0.8421052631578947</v>
+        <v>0.9363957597173145</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1116,22 +1107,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>0.723404255319149</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G26">
-        <v>0.591304347826087</v>
+        <v>0.5454545454545455</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1139,22 +1130,22 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C27">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E27">
-        <v>0.6666666666666666</v>
+        <v>0.7283950617283951</v>
       </c>
       <c r="F27">
-        <v>0.723404255319149</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="G27">
-        <v>0.6938775510204082</v>
+        <v>0.7468354430379747</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1162,22 +1153,22 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>0.8</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="F28">
-        <v>0.7058823529411765</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G28">
-        <v>0.7500000000000001</v>
+        <v>0.6717557251908397</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1185,22 +1176,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.4615384615384616</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="G29">
-        <v>0.5217391304347826</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1208,22 +1199,22 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.7159090909090909</v>
       </c>
       <c r="F30">
-        <v>0.4878048780487805</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="G30">
-        <v>0.6557377049180327</v>
+        <v>0.711864406779661</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1231,22 +1222,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E31">
-        <v>0.5882352941176471</v>
+        <v>0.7088607594936709</v>
       </c>
       <c r="F31">
-        <v>0.3260869565217391</v>
+        <v>0.6436781609195402</v>
       </c>
       <c r="G31">
-        <v>0.4195804195804196</v>
+        <v>0.674698795180723</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1254,22 +1245,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C32">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D32">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E32">
-        <v>0.9166666666666666</v>
+        <v>0.98</v>
       </c>
       <c r="F32">
-        <v>0.9705882352941176</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="G32">
-        <v>0.9428571428571428</v>
+        <v>0.9423076923076924</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1277,22 +1268,22 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E33">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="F33">
-        <v>0.3571428571428572</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="G33">
-        <v>0.4761904761904762</v>
+        <v>0.8287292817679557</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1300,22 +1291,22 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="C34">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="E34">
-        <v>0.7295081967213115</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="F34">
-        <v>0.5632911392405063</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="G34">
-        <v>0.6357142857142857</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1323,22 +1314,22 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C35">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="D35">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E35">
-        <v>0.826271186440678</v>
+        <v>0.5796178343949044</v>
       </c>
       <c r="F35">
-        <v>0.9069767441860465</v>
+        <v>0.9381443298969072</v>
       </c>
       <c r="G35">
-        <v>0.8647450110864745</v>
+        <v>0.7165354330708662</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1346,22 +1337,22 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E36">
-        <v>0.8421052631578947</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="G36">
-        <v>0.9142857142857143</v>
+        <v>0.9599999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1369,22 +1360,22 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E37">
-        <v>0.92</v>
+        <v>0.4621848739495799</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.2925531914893617</v>
       </c>
       <c r="G37">
-        <v>0.9583333333333334</v>
+        <v>0.3583061889250815</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1392,22 +1383,22 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="E38">
-        <v>0.4642857142857143</v>
+        <v>0.8757062146892656</v>
       </c>
       <c r="F38">
-        <v>0.4814814814814815</v>
+        <v>0.9627329192546584</v>
       </c>
       <c r="G38">
-        <v>0.4727272727272727</v>
+        <v>0.9171597633136094</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1415,22 +1406,22 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>71</v>
+        <v>336</v>
       </c>
       <c r="C39">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="D39">
-        <v>61</v>
+        <v>295</v>
       </c>
       <c r="E39">
-        <v>0.8133333333333334</v>
+        <v>0.9335443037974683</v>
       </c>
       <c r="F39">
-        <v>0.8591549295774648</v>
+        <v>0.8779761904761905</v>
       </c>
       <c r="G39">
-        <v>0.8356164383561644</v>
+        <v>0.9049079754601228</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1438,22 +1429,22 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="C40">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="D40">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="E40">
-        <v>0.5178571428571429</v>
+        <v>0.8893129770992366</v>
       </c>
       <c r="F40">
-        <v>0.7160493827160493</v>
+        <v>0.8006872852233677</v>
       </c>
       <c r="G40">
-        <v>0.6010362694300518</v>
+        <v>0.8426763110307414</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1461,102 +1452,33 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>284</v>
+        <v>3518</v>
       </c>
       <c r="C41">
-        <v>334</v>
+        <v>3587</v>
       </c>
       <c r="D41">
-        <v>240</v>
+        <v>2816</v>
       </c>
       <c r="E41">
-        <v>0.718562874251497</v>
+        <v>0.7850571508224142</v>
       </c>
       <c r="F41">
-        <v>0.8450704225352113</v>
+        <v>0.8004548038658329</v>
       </c>
       <c r="G41">
-        <v>0.7766990291262135</v>
+        <v>0.7926812104152007</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42">
-        <v>45</v>
-      </c>
-      <c r="C42">
-        <v>47</v>
-      </c>
-      <c r="D42">
-        <v>34</v>
-      </c>
-      <c r="E42">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="F42">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="G42">
-        <v>0.7391304347826088</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
+      <c r="E42" t="s">
         <v>48</v>
       </c>
-      <c r="B43">
-        <v>28</v>
-      </c>
-      <c r="C43">
-        <v>32</v>
-      </c>
-      <c r="D43">
-        <v>23</v>
-      </c>
-      <c r="E43">
-        <v>0.71875</v>
-      </c>
-      <c r="F43">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="G43">
-        <v>0.7666666666666666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
+      <c r="F42" t="s">
         <v>49</v>
-      </c>
-      <c r="B44">
-        <v>3814</v>
-      </c>
-      <c r="C44">
-        <v>3933</v>
-      </c>
-      <c r="D44">
-        <v>2849</v>
-      </c>
-      <c r="E44">
-        <v>0.7243834223239257</v>
-      </c>
-      <c r="F44">
-        <v>0.7469847928683796</v>
-      </c>
-      <c r="G44">
-        <v>0.7355105202013683</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
